--- a/Code/Results/Cases/Case_0_182/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_182/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1672524153730279</v>
+        <v>0.04837263193822139</v>
       </c>
       <c r="D2">
-        <v>0.08152441831864365</v>
+        <v>0.08076544123092333</v>
       </c>
       <c r="E2">
-        <v>0.06910173624375915</v>
+        <v>0.1133092308110477</v>
       </c>
       <c r="F2">
-        <v>7.192480047365024</v>
+        <v>3.954288008995889</v>
       </c>
       <c r="G2">
-        <v>7.797507936233899</v>
+        <v>3.5176108167297</v>
       </c>
       <c r="H2">
-        <v>3.820403506123398</v>
+        <v>2.358650277960862</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.321019642618964</v>
+        <v>0.2323591097579509</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1412772116694612</v>
+        <v>0.04291586150900173</v>
       </c>
       <c r="D3">
-        <v>0.07242619575526277</v>
+        <v>0.07849806491704214</v>
       </c>
       <c r="E3">
-        <v>0.06278670329017544</v>
+        <v>0.1129899566129922</v>
       </c>
       <c r="F3">
-        <v>6.143968498582211</v>
+        <v>3.771370646392</v>
       </c>
       <c r="G3">
-        <v>6.626436083855822</v>
+        <v>3.301587764275439</v>
       </c>
       <c r="H3">
-        <v>3.274505322140783</v>
+        <v>2.267373502473845</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2766782509888515</v>
+        <v>0.2254799030834818</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1260867643871393</v>
+        <v>0.03959561195001982</v>
       </c>
       <c r="D4">
-        <v>0.06711252944156598</v>
+        <v>0.07708835093855981</v>
       </c>
       <c r="E4">
-        <v>0.05917803033469582</v>
+        <v>0.1128551022632927</v>
       </c>
       <c r="F4">
-        <v>5.534708767582657</v>
+        <v>3.662213813342333</v>
       </c>
       <c r="G4">
-        <v>5.945038247276329</v>
+        <v>3.17181790680678</v>
       </c>
       <c r="H4">
-        <v>2.957733169444396</v>
+        <v>2.213175233925938</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2509954838818942</v>
+        <v>0.2214329583294443</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1200495475379029</v>
+        <v>0.03824977303857224</v>
       </c>
       <c r="D5">
-        <v>0.06500014326902459</v>
+        <v>0.07650930721145954</v>
       </c>
       <c r="E5">
-        <v>0.05776442283886141</v>
+        <v>0.1128154488327873</v>
       </c>
       <c r="F5">
-        <v>5.29348442040569</v>
+        <v>3.61850868487744</v>
       </c>
       <c r="G5">
-        <v>5.675021476819779</v>
+        <v>3.119638749499074</v>
       </c>
       <c r="H5">
-        <v>2.832414920184874</v>
+        <v>2.191544775453224</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2408467280614417</v>
+        <v>0.2198275908243801</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068605894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1190553522366287</v>
+        <v>0.03802671988772488</v>
       </c>
       <c r="D6">
-        <v>0.06465218936968853</v>
+        <v>0.0764128764471792</v>
       </c>
       <c r="E6">
-        <v>0.05753286273492009</v>
+        <v>0.112809786151427</v>
       </c>
       <c r="F6">
-        <v>5.253813842144893</v>
+        <v>3.611297953766808</v>
       </c>
       <c r="G6">
-        <v>5.630601904883406</v>
+        <v>3.111016377872318</v>
       </c>
       <c r="H6">
-        <v>2.811811636501659</v>
+        <v>2.187980339722969</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2391788871672702</v>
+        <v>0.2195636460189974</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.2803432614038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.126004769182174</v>
+        <v>0.03957743292303917</v>
       </c>
       <c r="D7">
-        <v>0.06708384474035256</v>
+        <v>0.07708056048665668</v>
       </c>
       <c r="E7">
-        <v>0.05915874784428965</v>
+        <v>0.1128545056388823</v>
       </c>
       <c r="F7">
-        <v>5.531428885159642</v>
+        <v>3.661621265120232</v>
       </c>
       <c r="G7">
-        <v>5.941367822366715</v>
+        <v>3.171111377513114</v>
       </c>
       <c r="H7">
-        <v>2.956028834640676</v>
+        <v>2.212881683554258</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2508574132159112</v>
+        <v>0.2214111313566605</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1581134298588296</v>
+        <v>0.04648461136100934</v>
       </c>
       <c r="D8">
-        <v>0.0783201959618296</v>
+        <v>0.07998718910423719</v>
       </c>
       <c r="E8">
-        <v>0.06686139573022842</v>
+        <v>0.1131863952433285</v>
       </c>
       <c r="F8">
-        <v>6.822691109408851</v>
+        <v>3.890553302341232</v>
       </c>
       <c r="G8">
-        <v>7.384693403245137</v>
+        <v>3.44251932213632</v>
       </c>
       <c r="H8">
-        <v>3.627777613742694</v>
+        <v>2.326789733958549</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.305362861879459</v>
+        <v>0.2299500163077965</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>2.766433886209882</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2293674536556551</v>
+        <v>0.06028899607788674</v>
       </c>
       <c r="D9">
-        <v>0.1034801520905688</v>
+        <v>0.0855556671229607</v>
       </c>
       <c r="E9">
-        <v>0.08473683448866964</v>
+        <v>0.1143267567236705</v>
       </c>
       <c r="F9">
-        <v>9.727262050432955</v>
+        <v>4.365297793557602</v>
       </c>
       <c r="G9">
-        <v>10.62303352065265</v>
+        <v>3.99839030280333</v>
       </c>
       <c r="H9">
-        <v>5.143202224819902</v>
+        <v>2.565213172815561</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4287681338054767</v>
+        <v>0.2481315412707659</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2914433189904315</v>
+        <v>0.07061782457429899</v>
       </c>
       <c r="D10">
-        <v>0.1259142828102284</v>
+        <v>0.08957788668929112</v>
       </c>
       <c r="E10">
-        <v>0.1008633599435171</v>
+        <v>0.1154691160534504</v>
       </c>
       <c r="F10">
-        <v>12.29155263617014</v>
+        <v>4.730963310585821</v>
       </c>
       <c r="G10">
-        <v>13.47685283541392</v>
+        <v>4.422482990430353</v>
       </c>
       <c r="H10">
-        <v>6.4849399907269</v>
+        <v>2.750149006206982</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5383310779733392</v>
+        <v>0.2624139554790048</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.323644237292072</v>
+        <v>0.07536367885205664</v>
       </c>
       <c r="D11">
-        <v>0.1378208899985083</v>
+        <v>0.09139523579088404</v>
       </c>
       <c r="E11">
-        <v>0.109361680344108</v>
+        <v>0.1160563421568135</v>
       </c>
       <c r="F11">
-        <v>13.63241335945571</v>
+        <v>4.90123507854571</v>
       </c>
       <c r="G11">
-        <v>14.96814920048996</v>
+        <v>4.619111932801957</v>
       </c>
       <c r="H11">
-        <v>7.187758628978031</v>
+        <v>2.836535916717708</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5957840215931753</v>
+        <v>0.2691231557129896</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731763</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3366843100754551</v>
+        <v>0.07716812685862351</v>
       </c>
       <c r="D12">
-        <v>0.1427048232814769</v>
+        <v>0.09208184401926189</v>
       </c>
       <c r="E12">
-        <v>0.1128229265224832</v>
+        <v>0.116288541591306</v>
       </c>
       <c r="F12">
-        <v>14.17738376725254</v>
+        <v>4.966298633669908</v>
       </c>
       <c r="G12">
-        <v>15.57415906656644</v>
+        <v>4.694127045197376</v>
       </c>
       <c r="H12">
-        <v>7.473636061494744</v>
+        <v>2.869584196910012</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6191607985588803</v>
+        <v>0.2716951551983016</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735713398</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3338319077881948</v>
+        <v>0.07677917397765555</v>
       </c>
       <c r="D13">
-        <v>0.1416332401104867</v>
+        <v>0.09193403782308707</v>
       </c>
       <c r="E13">
-        <v>0.1120649351130076</v>
+        <v>0.116238094238188</v>
       </c>
       <c r="F13">
-        <v>14.05807988901302</v>
+        <v>4.95225966812967</v>
       </c>
       <c r="G13">
-        <v>15.44149617800804</v>
+        <v>4.677946097155541</v>
       </c>
       <c r="H13">
-        <v>7.411041162410129</v>
+        <v>2.862451566768527</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6140420158344142</v>
+        <v>0.2711398195665708</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26155457991888</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3246978804212262</v>
+        <v>0.07551198269777615</v>
       </c>
       <c r="D14">
-        <v>0.1382141136456596</v>
+        <v>0.09145175402413486</v>
       </c>
       <c r="E14">
-        <v>0.1096409616542076</v>
+        <v>0.1160752476701958</v>
       </c>
       <c r="F14">
-        <v>13.6764052452433</v>
+        <v>4.906576046229361</v>
       </c>
       <c r="G14">
-        <v>15.01707010673152</v>
+        <v>4.625272194154491</v>
       </c>
       <c r="H14">
-        <v>7.210830785937276</v>
+        <v>2.839248033856052</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5976705527310173</v>
+        <v>0.2693341218030696</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139294</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.319224339507798</v>
+        <v>0.07473675688960668</v>
       </c>
       <c r="D15">
-        <v>0.1361739802207538</v>
+        <v>0.09115614115602</v>
       </c>
       <c r="E15">
-        <v>0.1081909091335547</v>
+        <v>0.1159767830357055</v>
       </c>
       <c r="F15">
-        <v>13.44795366980657</v>
+        <v>4.878670353067548</v>
       </c>
       <c r="G15">
-        <v>14.76301819382735</v>
+        <v>4.593081008551223</v>
       </c>
       <c r="H15">
-        <v>7.091025495915233</v>
+        <v>2.825079204977101</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5878747563119333</v>
+        <v>0.268232191764298</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193845</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2894387892592505</v>
+        <v>0.07030866489481014</v>
       </c>
       <c r="D16">
-        <v>0.125179806885221</v>
+        <v>0.08945888632213439</v>
       </c>
       <c r="E16">
-        <v>0.1003369105880836</v>
+        <v>0.1154321086230858</v>
       </c>
       <c r="F16">
-        <v>12.20831627573176</v>
+        <v>4.71991643304068</v>
       </c>
       <c r="G16">
-        <v>13.38426211859257</v>
+        <v>4.409709365074946</v>
       </c>
       <c r="H16">
-        <v>6.441338067377217</v>
+        <v>2.744549769859248</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5347678564072709</v>
+        <v>0.2619798349272742</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2723332479341281</v>
+        <v>0.06760462282041146</v>
       </c>
       <c r="D17">
-        <v>0.1189416208871634</v>
+        <v>0.08841464377878339</v>
       </c>
       <c r="E17">
-        <v>0.09585836725133134</v>
+        <v>0.1151153524600943</v>
       </c>
       <c r="F17">
-        <v>11.49916100494011</v>
+        <v>4.623546572525612</v>
       </c>
       <c r="G17">
-        <v>12.59531268967197</v>
+        <v>4.298182346519695</v>
       </c>
       <c r="H17">
-        <v>6.069989737111257</v>
+        <v>2.695733525950004</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5044270733967267</v>
+        <v>0.2581991445066052</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2628451060681698</v>
+        <v>0.06605374256338337</v>
       </c>
       <c r="D18">
-        <v>0.1155030110374966</v>
+        <v>0.0878128457814995</v>
       </c>
       <c r="E18">
-        <v>0.09338567537788478</v>
+        <v>0.1149395147330772</v>
       </c>
       <c r="F18">
-        <v>11.10669786271902</v>
+        <v>4.568485704440718</v>
       </c>
       <c r="G18">
-        <v>12.15860438013453</v>
+        <v>4.234382464436237</v>
       </c>
       <c r="H18">
-        <v>5.864578953637647</v>
+        <v>2.667867652809321</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4876496377094668</v>
+        <v>0.2560444970519029</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637129</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2596866852809114</v>
+        <v>0.065529383964261</v>
       </c>
       <c r="D19">
-        <v>0.1143616007145525</v>
+        <v>0.08760887918698756</v>
       </c>
       <c r="E19">
-        <v>0.09256451337401828</v>
+        <v>0.11488106665945</v>
       </c>
       <c r="F19">
-        <v>10.97619849377566</v>
+        <v>4.549905725111984</v>
       </c>
       <c r="G19">
-        <v>12.01337761535558</v>
+        <v>4.212839919092346</v>
       </c>
       <c r="H19">
-        <v>5.796293503270761</v>
+        <v>2.658468829434128</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4820732258201446</v>
+        <v>0.2553183630231501</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870099</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2741163647060318</v>
+        <v>0.06789201234747111</v>
       </c>
       <c r="D20">
-        <v>0.1195895158767826</v>
+        <v>0.08852592561328265</v>
       </c>
       <c r="E20">
-        <v>0.09632401058910034</v>
+        <v>0.1151484134686918</v>
       </c>
       <c r="F20">
-        <v>11.57298881429159</v>
+        <v>4.633767022025438</v>
       </c>
       <c r="G20">
-        <v>12.67745638807168</v>
+        <v>4.310018458435081</v>
       </c>
       <c r="H20">
-        <v>6.108638590313944</v>
+        <v>2.700908087636094</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5075842798820105</v>
+        <v>0.2585995390348472</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003277312</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.327354720442429</v>
+        <v>0.07588398537247087</v>
       </c>
       <c r="D21">
-        <v>0.1392067343054038</v>
+        <v>0.09159345381029738</v>
       </c>
       <c r="E21">
-        <v>0.1103455010341641</v>
+        <v>0.1161228119448872</v>
       </c>
       <c r="F21">
-        <v>13.78736687498622</v>
+        <v>4.919978381715907</v>
       </c>
       <c r="G21">
-        <v>15.14046287059057</v>
+        <v>4.640728520165908</v>
       </c>
       <c r="H21">
-        <v>7.269029951678363</v>
+        <v>2.846054283815135</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6024294037514011</v>
+        <v>0.269863640468273</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709366</v>
+        <v>4.391158149571254</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3673720192872878</v>
+        <v>0.08114997452075556</v>
       </c>
       <c r="D22">
-        <v>0.1543567727343031</v>
+        <v>0.09358913304082961</v>
       </c>
       <c r="E22">
-        <v>0.1210054477898233</v>
+        <v>0.1168169890189503</v>
       </c>
       <c r="F22">
-        <v>15.46431751295074</v>
+        <v>5.110455770377826</v>
       </c>
       <c r="G22">
-        <v>17.00511637317521</v>
+        <v>4.860118637852167</v>
       </c>
       <c r="H22">
-        <v>8.149243658266585</v>
+        <v>2.942876066604526</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6744159457998222</v>
+        <v>0.2774086648391574</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057951</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3453897824939105</v>
+        <v>0.07833533198132159</v>
       </c>
       <c r="D23">
-        <v>0.1459869437721721</v>
+        <v>0.09252476986636538</v>
       </c>
       <c r="E23">
-        <v>0.1151391612022934</v>
+        <v>0.1164412069167753</v>
       </c>
       <c r="F23">
-        <v>14.54182930780007</v>
+        <v>5.008474398812893</v>
       </c>
       <c r="G23">
-        <v>15.97940308309876</v>
+        <v>4.742720673453675</v>
       </c>
       <c r="H23">
-        <v>7.66488746702754</v>
+        <v>2.891017476650177</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6348014250055911</v>
+        <v>0.27336467515957</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2733091577744773</v>
+        <v>0.06776207202669582</v>
       </c>
       <c r="D24">
-        <v>0.1192961506071413</v>
+        <v>0.08847561962414829</v>
       </c>
       <c r="E24">
-        <v>0.09611318024860438</v>
+        <v>0.1151334470668743</v>
       </c>
       <c r="F24">
-        <v>11.53956458591728</v>
+        <v>4.629145288575558</v>
       </c>
       <c r="G24">
-        <v>12.64026756031899</v>
+        <v>4.304666361949273</v>
       </c>
       <c r="H24">
-        <v>6.091140689276131</v>
+        <v>2.698568048523214</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5061548670829552</v>
+        <v>0.2584184617970919</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529127</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2088223072534987</v>
+        <v>0.05652386341895976</v>
       </c>
       <c r="D25">
-        <v>0.0961753730222128</v>
+        <v>0.08406217762149737</v>
       </c>
       <c r="E25">
-        <v>0.07949750603876637</v>
+        <v>0.1139652353035991</v>
       </c>
       <c r="F25">
-        <v>8.88506479788856</v>
+        <v>4.233988375685414</v>
       </c>
       <c r="G25">
-        <v>9.684900338759689</v>
+        <v>3.845351347943165</v>
       </c>
       <c r="H25">
-        <v>4.703267378438909</v>
+        <v>2.499042109264394</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3928955317841343</v>
+        <v>0.2430542141782297</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.006838561192296</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_182/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_182/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04837263193822139</v>
+        <v>0.1672524153734258</v>
       </c>
       <c r="D2">
-        <v>0.08076544123092333</v>
+        <v>0.08152441831862234</v>
       </c>
       <c r="E2">
-        <v>0.1133092308110477</v>
+        <v>0.06910173624377336</v>
       </c>
       <c r="F2">
-        <v>3.954288008995889</v>
+        <v>7.192480047365109</v>
       </c>
       <c r="G2">
-        <v>3.5176108167297</v>
+        <v>7.797507936233956</v>
       </c>
       <c r="H2">
-        <v>2.358650277960862</v>
+        <v>3.820403506123341</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2323591097579509</v>
+        <v>0.3210196426190208</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04291586150900173</v>
+        <v>0.1412772116694896</v>
       </c>
       <c r="D3">
-        <v>0.07849806491704214</v>
+        <v>0.07242619575492881</v>
       </c>
       <c r="E3">
-        <v>0.1129899566129922</v>
+        <v>0.06278670329015057</v>
       </c>
       <c r="F3">
-        <v>3.771370646392</v>
+        <v>6.143968498582183</v>
       </c>
       <c r="G3">
-        <v>3.301587764275439</v>
+        <v>6.626436083855936</v>
       </c>
       <c r="H3">
-        <v>2.267373502473845</v>
+        <v>3.274505322140783</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2254799030834818</v>
+        <v>0.2766782509885815</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03959561195001982</v>
+        <v>0.1260867643865708</v>
       </c>
       <c r="D4">
-        <v>0.07708835093855981</v>
+        <v>0.06711252944165835</v>
       </c>
       <c r="E4">
-        <v>0.1128551022632927</v>
+        <v>0.05917803033476332</v>
       </c>
       <c r="F4">
-        <v>3.662213813342333</v>
+        <v>5.534708767582657</v>
       </c>
       <c r="G4">
-        <v>3.17181790680678</v>
+        <v>5.945038247276386</v>
       </c>
       <c r="H4">
-        <v>2.213175233925938</v>
+        <v>2.957733169444396</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2214329583294443</v>
+        <v>0.2509954838818658</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03824977303857224</v>
+        <v>0.1200495475378887</v>
       </c>
       <c r="D5">
-        <v>0.07650930721145954</v>
+        <v>0.0650001432686409</v>
       </c>
       <c r="E5">
-        <v>0.1128154488327873</v>
+        <v>0.05776442283881167</v>
       </c>
       <c r="F5">
-        <v>3.61850868487744</v>
+        <v>5.293484420405719</v>
       </c>
       <c r="G5">
-        <v>3.119638749499074</v>
+        <v>5.675021476819779</v>
       </c>
       <c r="H5">
-        <v>2.191544775453224</v>
+        <v>2.832414920184931</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2198275908243801</v>
+        <v>0.2408467280612854</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068605894</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03802671988772488</v>
+        <v>0.1190553522369697</v>
       </c>
       <c r="D6">
-        <v>0.0764128764471792</v>
+        <v>0.06465218936947537</v>
       </c>
       <c r="E6">
-        <v>0.112809786151427</v>
+        <v>0.05753286273494496</v>
       </c>
       <c r="F6">
-        <v>3.611297953766808</v>
+        <v>5.253813842144922</v>
       </c>
       <c r="G6">
-        <v>3.111016377872318</v>
+        <v>5.630601904883406</v>
       </c>
       <c r="H6">
-        <v>2.187980339722969</v>
+        <v>2.811811636501602</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2195636460189974</v>
+        <v>0.2391788871673413</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.2803432614038</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03957743292303917</v>
+        <v>0.1260047691827282</v>
       </c>
       <c r="D7">
-        <v>0.07708056048665668</v>
+        <v>0.06708384474033835</v>
       </c>
       <c r="E7">
-        <v>0.1128545056388823</v>
+        <v>0.05915874784438557</v>
       </c>
       <c r="F7">
-        <v>3.661621265120232</v>
+        <v>5.531428885159698</v>
       </c>
       <c r="G7">
-        <v>3.171111377513114</v>
+        <v>5.941367822366772</v>
       </c>
       <c r="H7">
-        <v>2.212881683554258</v>
+        <v>2.956028834640676</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2214111313566605</v>
+        <v>0.2508574132158969</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04648461136100934</v>
+        <v>0.1581134298590428</v>
       </c>
       <c r="D8">
-        <v>0.07998718910423719</v>
+        <v>0.07832019596165196</v>
       </c>
       <c r="E8">
-        <v>0.1131863952433285</v>
+        <v>0.06686139573022487</v>
       </c>
       <c r="F8">
-        <v>3.890553302341232</v>
+        <v>6.822691109408879</v>
       </c>
       <c r="G8">
-        <v>3.44251932213632</v>
+        <v>7.38469340324508</v>
       </c>
       <c r="H8">
-        <v>2.326789733958549</v>
+        <v>3.627777613742637</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2299500163077965</v>
+        <v>0.3053628618793596</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209882</v>
+        <v>7.348453399592813</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06028899607788674</v>
+        <v>0.2293674536556125</v>
       </c>
       <c r="D9">
-        <v>0.0855556671229607</v>
+        <v>0.1034801520905617</v>
       </c>
       <c r="E9">
-        <v>0.1143267567236705</v>
+        <v>0.08473683448866964</v>
       </c>
       <c r="F9">
-        <v>4.365297793557602</v>
+        <v>9.727262050432984</v>
       </c>
       <c r="G9">
-        <v>3.99839030280333</v>
+        <v>10.62303352065277</v>
       </c>
       <c r="H9">
-        <v>2.565213172815561</v>
+        <v>5.143202224819902</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2481315412707659</v>
+        <v>0.4287681338055762</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07061782457429899</v>
+        <v>0.2914433189904742</v>
       </c>
       <c r="D10">
-        <v>0.08957788668929112</v>
+        <v>0.1259142828106405</v>
       </c>
       <c r="E10">
-        <v>0.1154691160534504</v>
+        <v>0.1008633599435278</v>
       </c>
       <c r="F10">
-        <v>4.730963310585821</v>
+        <v>12.29155263616997</v>
       </c>
       <c r="G10">
-        <v>4.422482990430353</v>
+        <v>13.47685283541369</v>
       </c>
       <c r="H10">
-        <v>2.750149006206982</v>
+        <v>6.484939990726843</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2624139554790048</v>
+        <v>0.5383310779736377</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837525</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07536367885205664</v>
+        <v>0.3236442372920862</v>
       </c>
       <c r="D11">
-        <v>0.09139523579088404</v>
+        <v>0.1378208899987285</v>
       </c>
       <c r="E11">
-        <v>0.1160563421568135</v>
+        <v>0.109361680344108</v>
       </c>
       <c r="F11">
-        <v>4.90123507854571</v>
+        <v>13.6324133594556</v>
       </c>
       <c r="G11">
-        <v>4.619111932801957</v>
+        <v>14.96814920049013</v>
       </c>
       <c r="H11">
-        <v>2.836535916717708</v>
+        <v>7.187758628978031</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2691231557129896</v>
+        <v>0.5957840215932606</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07716812685862351</v>
+        <v>0.3366843100754267</v>
       </c>
       <c r="D12">
-        <v>0.09208184401926189</v>
+        <v>0.1427048232814201</v>
       </c>
       <c r="E12">
-        <v>0.116288541591306</v>
+        <v>0.1128229265224086</v>
       </c>
       <c r="F12">
-        <v>4.966298633669908</v>
+        <v>14.17738376725288</v>
       </c>
       <c r="G12">
-        <v>4.694127045197376</v>
+        <v>15.57415906656689</v>
       </c>
       <c r="H12">
-        <v>2.869584196910012</v>
+        <v>7.473636061495029</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2716951551983016</v>
+        <v>0.6191607985588519</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735713398</v>
+        <v>12.32306348037537</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07677917397765555</v>
+        <v>0.3338319077877969</v>
       </c>
       <c r="D13">
-        <v>0.09193403782308707</v>
+        <v>0.1416332401105578</v>
       </c>
       <c r="E13">
-        <v>0.116238094238188</v>
+        <v>0.1120649351129543</v>
       </c>
       <c r="F13">
-        <v>4.95225966812967</v>
+        <v>14.05807988901302</v>
       </c>
       <c r="G13">
-        <v>4.677946097155541</v>
+        <v>15.44149617800787</v>
       </c>
       <c r="H13">
-        <v>2.862451566768527</v>
+        <v>7.411041162410129</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2711398195665708</v>
+        <v>0.6140420158345279</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991877</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07551198269777615</v>
+        <v>0.3246978804212972</v>
       </c>
       <c r="D14">
-        <v>0.09145175402413486</v>
+        <v>0.1382141136454251</v>
       </c>
       <c r="E14">
-        <v>0.1160752476701958</v>
+        <v>0.1096409616542253</v>
       </c>
       <c r="F14">
-        <v>4.906576046229361</v>
+        <v>13.67640524524342</v>
       </c>
       <c r="G14">
-        <v>4.625272194154491</v>
+        <v>15.01707010673164</v>
       </c>
       <c r="H14">
-        <v>2.839248033856052</v>
+        <v>7.210830785937333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2693341218030696</v>
+        <v>0.5976705527311594</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139294</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07473675688960668</v>
+        <v>0.3192243395082386</v>
       </c>
       <c r="D15">
-        <v>0.09115614115602</v>
+        <v>0.1361739802209598</v>
       </c>
       <c r="E15">
-        <v>0.1159767830357055</v>
+        <v>0.1081909091336222</v>
       </c>
       <c r="F15">
-        <v>4.878670353067548</v>
+        <v>13.44795366980668</v>
       </c>
       <c r="G15">
-        <v>4.593081008551223</v>
+        <v>14.76301819382741</v>
       </c>
       <c r="H15">
-        <v>2.825079204977101</v>
+        <v>7.091025495915289</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.268232191764298</v>
+        <v>0.5878747563118623</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.9380108119384</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07030866489481014</v>
+        <v>0.2894387892596626</v>
       </c>
       <c r="D16">
-        <v>0.08945888632213439</v>
+        <v>0.1251798068852423</v>
       </c>
       <c r="E16">
-        <v>0.1154321086230858</v>
+        <v>0.1003369105880267</v>
       </c>
       <c r="F16">
-        <v>4.71991643304068</v>
+        <v>12.2083162757317</v>
       </c>
       <c r="G16">
-        <v>4.409709365074946</v>
+        <v>13.38426211859252</v>
       </c>
       <c r="H16">
-        <v>2.744549769859248</v>
+        <v>6.44133806737733</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2619798349272742</v>
+        <v>0.5347678564073277</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560718</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06760462282041146</v>
+        <v>0.2723332479349381</v>
       </c>
       <c r="D17">
-        <v>0.08841464377878339</v>
+        <v>0.1189416208869432</v>
       </c>
       <c r="E17">
-        <v>0.1151153524600943</v>
+        <v>0.09585836725138464</v>
       </c>
       <c r="F17">
-        <v>4.623546572525612</v>
+        <v>11.49916100494005</v>
       </c>
       <c r="G17">
-        <v>4.298182346519695</v>
+        <v>12.59531268967191</v>
       </c>
       <c r="H17">
-        <v>2.695733525950004</v>
+        <v>6.069989737111314</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2581991445066052</v>
+        <v>0.5044270733967267</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282927</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06605374256338337</v>
+        <v>0.2628451060677719</v>
       </c>
       <c r="D18">
-        <v>0.0878128457814995</v>
+        <v>0.1155030110379158</v>
       </c>
       <c r="E18">
-        <v>0.1149395147330772</v>
+        <v>0.09338567537788478</v>
       </c>
       <c r="F18">
-        <v>4.568485704440718</v>
+        <v>11.10669786271896</v>
       </c>
       <c r="G18">
-        <v>4.234382464436237</v>
+        <v>12.15860438013448</v>
       </c>
       <c r="H18">
-        <v>2.667867652809321</v>
+        <v>5.86457895363759</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2560444970519029</v>
+        <v>0.4876496377094668</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637129</v>
+        <v>10.55149949033279</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.065529383964261</v>
+        <v>0.2596866852797035</v>
       </c>
       <c r="D19">
-        <v>0.08760887918698756</v>
+        <v>0.1143616007143891</v>
       </c>
       <c r="E19">
-        <v>0.11488106665945</v>
+        <v>0.09256451337400406</v>
       </c>
       <c r="F19">
-        <v>4.549905725111984</v>
+        <v>10.97619849377554</v>
       </c>
       <c r="G19">
-        <v>4.212839919092346</v>
+        <v>12.01337761535541</v>
       </c>
       <c r="H19">
-        <v>2.658468829434128</v>
+        <v>5.796293503270647</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2553183630231501</v>
+        <v>0.4820732258202014</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.46716465870088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06789201234747111</v>
+        <v>0.2741163647056055</v>
       </c>
       <c r="D20">
-        <v>0.08852592561328265</v>
+        <v>0.1195895158769673</v>
       </c>
       <c r="E20">
-        <v>0.1151484134686918</v>
+        <v>0.09632401058906837</v>
       </c>
       <c r="F20">
-        <v>4.633767022025438</v>
+        <v>11.5729888142917</v>
       </c>
       <c r="G20">
-        <v>4.310018458435081</v>
+        <v>12.67745638807173</v>
       </c>
       <c r="H20">
-        <v>2.700908087636094</v>
+        <v>6.108638590314058</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2585995390348472</v>
+        <v>0.5075842798819963</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003277312</v>
+        <v>10.84659223998085</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07588398537247087</v>
+        <v>0.3273547204424148</v>
       </c>
       <c r="D21">
-        <v>0.09159345381029738</v>
+        <v>0.139206734304743</v>
       </c>
       <c r="E21">
-        <v>0.1161228119448872</v>
+        <v>0.1103455010342174</v>
       </c>
       <c r="F21">
-        <v>4.919978381715907</v>
+        <v>13.78736687498633</v>
       </c>
       <c r="G21">
-        <v>4.640728520165908</v>
+        <v>15.14046287059051</v>
       </c>
       <c r="H21">
-        <v>2.846054283815135</v>
+        <v>7.269029951678419</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.269863640468273</v>
+        <v>0.6024294037516853</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571254</v>
+        <v>12.11986155709383</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08114997452075556</v>
+        <v>0.3673720192876289</v>
       </c>
       <c r="D22">
-        <v>0.09358913304082961</v>
+        <v>0.1543567727342818</v>
       </c>
       <c r="E22">
-        <v>0.1168169890189503</v>
+        <v>0.1210054477897806</v>
       </c>
       <c r="F22">
-        <v>5.110455770377826</v>
+        <v>15.46431751295108</v>
       </c>
       <c r="G22">
-        <v>4.860118637852167</v>
+        <v>17.00511637317527</v>
       </c>
       <c r="H22">
-        <v>2.942876066604526</v>
+        <v>8.149243658266641</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2774086648391574</v>
+        <v>0.674415945799808</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057956</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07833533198132159</v>
+        <v>0.3453897824934131</v>
       </c>
       <c r="D23">
-        <v>0.09252476986636538</v>
+        <v>0.1459869437721579</v>
       </c>
       <c r="E23">
-        <v>0.1164412069167753</v>
+        <v>0.1151391612022437</v>
       </c>
       <c r="F23">
-        <v>5.008474398812893</v>
+        <v>14.54182930780013</v>
       </c>
       <c r="G23">
-        <v>4.742720673453675</v>
+        <v>15.97940308309876</v>
       </c>
       <c r="H23">
-        <v>2.891017476650177</v>
+        <v>7.664887467027597</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.27336467515957</v>
+        <v>0.6348014250057616</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934252</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06776207202669582</v>
+        <v>0.2733091577748326</v>
       </c>
       <c r="D24">
-        <v>0.08847561962414829</v>
+        <v>0.1192961506066865</v>
       </c>
       <c r="E24">
-        <v>0.1151334470668743</v>
+        <v>0.09611318024859372</v>
       </c>
       <c r="F24">
-        <v>4.629145288575558</v>
+        <v>11.5395645859175</v>
       </c>
       <c r="G24">
-        <v>4.304666361949273</v>
+        <v>12.64026756031922</v>
       </c>
       <c r="H24">
-        <v>2.698568048523214</v>
+        <v>6.091140689276131</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2584184617970919</v>
+        <v>0.5061548670828984</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05652386341895976</v>
+        <v>0.208822307253925</v>
       </c>
       <c r="D25">
-        <v>0.08406217762149737</v>
+        <v>0.0961753730222128</v>
       </c>
       <c r="E25">
-        <v>0.1139652353035991</v>
+        <v>0.07949750603873795</v>
       </c>
       <c r="F25">
-        <v>4.233988375685414</v>
+        <v>8.885064797888532</v>
       </c>
       <c r="G25">
-        <v>3.845351347943165</v>
+        <v>9.684900338759974</v>
       </c>
       <c r="H25">
-        <v>2.499042109264394</v>
+        <v>4.703267378438966</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2430542141782297</v>
+        <v>0.3928955317842622</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
         <v>0</v>
